--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/globzha_emory_edu/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/globzha_emory_edu/Documents/Emory/Research/საქართველო სომხეთი/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_F25DC773A252ABDACC1048A80958762A5BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D40F7799-057B-467D-B8C9-84383E5EF682}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_F25DC773A252ABDACC1048A80958762A5BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96997808-D43F-4B2C-9E5E-7AE83FFD34C3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Sex</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>AnswerSum</t>
+  </si>
+  <si>
+    <t>AnswerEg</t>
   </si>
 </sst>
 </file>
@@ -146,6 +149,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,21 +418,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="8.88671875" style="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" customWidth="1"/>
-    <col min="25" max="25" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" customWidth="1"/>
+    <col min="26" max="26" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -459,11 +466,14 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -497,12 +507,15 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <f>SUM(D2:K2)</f>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <f>SUM(D2:L2)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -536,12 +549,15 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" ref="L3:L51" si="0">SUM(D3:K3)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M66" si="0">SUM(D3:L3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -575,12 +591,15 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -614,12 +633,15 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -653,12 +675,15 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -692,12 +717,15 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -731,12 +759,15 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -770,12 +801,15 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -809,12 +843,15 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -848,12 +885,15 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -887,12 +927,15 @@
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -926,12 +969,15 @@
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -965,12 +1011,15 @@
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1004,12 +1053,15 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1043,12 +1095,15 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1082,12 +1137,15 @@
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="L17" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1121,12 +1179,15 @@
       <c r="K18">
         <v>1</v>
       </c>
-      <c r="L18" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1160,12 +1221,15 @@
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1199,12 +1263,15 @@
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1238,12 +1305,15 @@
       <c r="K21">
         <v>1</v>
       </c>
-      <c r="L21" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1277,12 +1347,15 @@
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1316,12 +1389,15 @@
       <c r="K23">
         <v>1</v>
       </c>
-      <c r="L23" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1355,12 +1431,15 @@
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="L24" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1394,12 +1473,15 @@
       <c r="K25">
         <v>1</v>
       </c>
-      <c r="L25" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1433,12 +1515,15 @@
       <c r="K26">
         <v>0</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1472,12 +1557,15 @@
       <c r="K27">
         <v>0</v>
       </c>
-      <c r="L27" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1511,12 +1599,15 @@
       <c r="K28">
         <v>1</v>
       </c>
-      <c r="L28" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1550,12 +1641,15 @@
       <c r="K29">
         <v>0</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1589,12 +1683,15 @@
       <c r="K30">
         <v>1</v>
       </c>
-      <c r="L30" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1628,12 +1725,15 @@
       <c r="K31">
         <v>0</v>
       </c>
-      <c r="L31" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1667,12 +1767,15 @@
       <c r="K32">
         <v>0</v>
       </c>
-      <c r="L32" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1706,12 +1809,15 @@
       <c r="K33">
         <v>1</v>
       </c>
-      <c r="L33" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1745,12 +1851,15 @@
       <c r="K34">
         <v>1</v>
       </c>
-      <c r="L34" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1784,12 +1893,15 @@
       <c r="K35">
         <v>1</v>
       </c>
-      <c r="L35" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1823,12 +1935,15 @@
       <c r="K36">
         <v>1</v>
       </c>
-      <c r="L36" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1862,12 +1977,15 @@
       <c r="K37">
         <v>1</v>
       </c>
-      <c r="L37" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1901,12 +2019,15 @@
       <c r="K38">
         <v>0</v>
       </c>
-      <c r="L38" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1940,12 +2061,15 @@
       <c r="K39">
         <v>0</v>
       </c>
-      <c r="L39" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1979,12 +2103,15 @@
       <c r="K40">
         <v>1</v>
       </c>
-      <c r="L40" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2018,12 +2145,15 @@
       <c r="K41">
         <v>1</v>
       </c>
-      <c r="L41" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2057,12 +2187,15 @@
       <c r="K42">
         <v>1</v>
       </c>
-      <c r="L42" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2096,12 +2229,15 @@
       <c r="K43">
         <v>1</v>
       </c>
-      <c r="L43" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2135,12 +2271,15 @@
       <c r="K44">
         <v>1</v>
       </c>
-      <c r="L44" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2174,12 +2313,15 @@
       <c r="K45">
         <v>1</v>
       </c>
-      <c r="L45" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2213,12 +2355,15 @@
       <c r="K46">
         <v>1</v>
       </c>
-      <c r="L46" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2252,12 +2397,15 @@
       <c r="K47">
         <v>1</v>
       </c>
-      <c r="L47" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2291,12 +2439,15 @@
       <c r="K48">
         <v>0</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2330,12 +2481,15 @@
       <c r="K49">
         <v>0</v>
       </c>
-      <c r="L49" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2369,12 +2523,15 @@
       <c r="K50">
         <v>1</v>
       </c>
-      <c r="L50" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2408,12 +2565,15 @@
       <c r="K51">
         <v>0</v>
       </c>
-      <c r="L51" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2447,12 +2607,15 @@
       <c r="K52">
         <v>1</v>
       </c>
-      <c r="L52" s="1">
-        <f>SUM(D52:K52)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2486,12 +2649,15 @@
       <c r="K53">
         <v>1</v>
       </c>
-      <c r="L53" s="1">
-        <f t="shared" ref="L53:L101" si="1">SUM(D53:K53)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2525,1728 +2691,1863 @@
       <c r="K54">
         <v>0</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67" s="1">
+        <f t="shared" ref="M67:M101" si="1">SUM(D67:L67)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" s="3">
-        <v>1</v>
-      </c>
-      <c r="C55" s="3">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55" s="1">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
+        <v>1</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" s="3">
-        <v>1</v>
-      </c>
-      <c r="C56" s="3">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-      <c r="L56" s="1">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="3">
-        <v>1</v>
-      </c>
-      <c r="C57" s="3">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57" s="1">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" s="3">
-        <v>1</v>
-      </c>
-      <c r="C58" s="3">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58" s="1">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" s="3">
-        <v>1</v>
-      </c>
-      <c r="C59" s="3">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" s="3">
-        <v>1</v>
-      </c>
-      <c r="C60" s="3">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" s="3">
-        <v>1</v>
-      </c>
-      <c r="C61" s="3">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
-      <c r="L61" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" s="3">
-        <v>1</v>
-      </c>
-      <c r="C62" s="3">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" s="3">
-        <v>1</v>
-      </c>
-      <c r="C63" s="3">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="L63" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" s="3">
-        <v>1</v>
-      </c>
-      <c r="C64" s="3">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" s="3">
-        <v>1</v>
-      </c>
-      <c r="C65" s="3">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" s="3">
-        <v>1</v>
-      </c>
-      <c r="C66" s="3">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" s="3">
-        <v>1</v>
-      </c>
-      <c r="C67" s="3">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
-      <c r="L67" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" s="3">
-        <v>1</v>
-      </c>
-      <c r="C68" s="3">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" s="3">
-        <v>1</v>
-      </c>
-      <c r="C69" s="3">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-      <c r="L69" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" s="3">
-        <v>1</v>
-      </c>
-      <c r="C70" s="3">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-      <c r="L70" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" s="3">
-        <v>1</v>
-      </c>
-      <c r="C71" s="3">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" s="3">
-        <v>1</v>
-      </c>
-      <c r="C72" s="3">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" s="3">
-        <v>1</v>
-      </c>
-      <c r="C73" s="3">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-      <c r="L73" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" s="3">
-        <v>1</v>
-      </c>
-      <c r="C74" s="3">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" s="3">
-        <v>1</v>
-      </c>
-      <c r="C75" s="3">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-      <c r="L75" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" s="3">
-        <v>1</v>
-      </c>
-      <c r="C76" s="3">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" s="3">
-        <v>1</v>
-      </c>
-      <c r="C77" s="3">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-      <c r="L77" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" s="3">
-        <v>1</v>
-      </c>
-      <c r="C78" s="3">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" s="3">
-        <v>1</v>
-      </c>
-      <c r="C79" s="3">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-      <c r="L79" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" s="3">
-        <v>1</v>
-      </c>
-      <c r="C80" s="3">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" s="3">
-        <v>1</v>
-      </c>
-      <c r="C81" s="3">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-      <c r="L81" s="1">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" s="3">
-        <v>1</v>
-      </c>
-      <c r="C82" s="3">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>1</v>
-      </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
-      <c r="L82" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" s="3">
-        <v>1</v>
-      </c>
-      <c r="C83" s="3">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-      <c r="J83">
-        <v>1</v>
-      </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
-      <c r="L83" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" s="3">
-        <v>1</v>
-      </c>
-      <c r="C84" s="3">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>1</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" s="3">
-        <v>1</v>
-      </c>
-      <c r="C85" s="3">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-      <c r="L85" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" s="3">
-        <v>1</v>
-      </c>
-      <c r="C86" s="3">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-      <c r="L86" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" s="3">
-        <v>1</v>
-      </c>
-      <c r="C87" s="3">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
-      <c r="L87" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" s="3">
-        <v>1</v>
-      </c>
-      <c r="C88" s="3">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" s="3">
-        <v>1</v>
-      </c>
-      <c r="C89" s="3">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" s="3">
-        <v>1</v>
-      </c>
-      <c r="C90" s="3">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
-      <c r="J90">
-        <v>1</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="L90" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" s="3">
-        <v>1</v>
-      </c>
-      <c r="C91" s="3">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" s="3">
-        <v>1</v>
-      </c>
-      <c r="C92" s="3">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="L92" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" s="3">
-        <v>1</v>
-      </c>
-      <c r="C93" s="3">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-      <c r="J93">
-        <v>1</v>
-      </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
-      <c r="L93" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" s="3">
-        <v>1</v>
-      </c>
-      <c r="C94" s="3">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-      <c r="J94">
-        <v>1</v>
-      </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-      <c r="L94" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" s="3">
-        <v>1</v>
-      </c>
-      <c r="C95" s="3">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>1</v>
-      </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-      <c r="L95" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" s="3">
-        <v>1</v>
-      </c>
-      <c r="C96" s="3">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
-      <c r="J96">
-        <v>1</v>
-      </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-      <c r="L96" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" s="3">
-        <v>1</v>
-      </c>
-      <c r="C97" s="3">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>1</v>
-      </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-      <c r="L97" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98" s="3">
-        <v>1</v>
-      </c>
-      <c r="C98" s="3">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="L98" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4280,12 +4581,15 @@
       <c r="K99">
         <v>1</v>
       </c>
-      <c r="L99" s="1">
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4319,12 +4623,15 @@
       <c r="K100">
         <v>1</v>
       </c>
-      <c r="L100" s="1">
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4358,7 +4665,10 @@
       <c r="K101">
         <v>1</v>
       </c>
-      <c r="L101" s="1">
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/globzha_emory_edu/Documents/Emory/Research/საქართველო სომხეთი/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_F25DC773A252ABDACC1048A80958762A5BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96997808-D43F-4B2C-9E5E-7AE83FFD34C3}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="11_F25DC773A252ABDACC1048A80958762A5BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C61F3F1-C86D-411C-B0D3-4D8B518950C4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Sex</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>AnswerEg</t>
+  </si>
+  <si>
+    <t>AnswerOz</t>
+  </si>
+  <si>
+    <t>AnswerP</t>
+  </si>
+  <si>
+    <t>AnswerMrt</t>
   </si>
 </sst>
 </file>
@@ -128,11 +137,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -149,10 +159,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,21 +424,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z101"/>
+  <dimension ref="A1:AC101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="11.33203125" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" customWidth="1"/>
-    <col min="26" max="26" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="4"/>
+    <col min="16" max="16" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="12.109375" customWidth="1"/>
+    <col min="29" max="29" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -469,11 +477,20 @@
       <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -510,12 +527,21 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" s="1">
-        <f>SUM(D2:L2)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <f>SUM(D2:O2)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -552,12 +578,21 @@
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3" s="1">
-        <f t="shared" ref="M3:M66" si="0">SUM(D3:L3)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P66" si="0">SUM(D3:O3)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -594,12 +629,21 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -636,12 +680,21 @@
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -678,12 +731,21 @@
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -720,12 +782,21 @@
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -762,12 +833,21 @@
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -804,12 +884,21 @@
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -846,12 +935,21 @@
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -888,12 +986,21 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -930,12 +1037,21 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -972,12 +1088,21 @@
       <c r="L13">
         <v>1</v>
       </c>
-      <c r="M13" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1014,12 +1139,21 @@
       <c r="L14">
         <v>1</v>
       </c>
-      <c r="M14" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1056,12 +1190,21 @@
       <c r="L15">
         <v>1</v>
       </c>
-      <c r="M15" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1098,12 +1241,21 @@
       <c r="L16">
         <v>1</v>
       </c>
-      <c r="M16" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1140,12 +1292,21 @@
       <c r="L17">
         <v>1</v>
       </c>
-      <c r="M17" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1182,12 +1343,21 @@
       <c r="L18">
         <v>1</v>
       </c>
-      <c r="M18" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1224,12 +1394,21 @@
       <c r="L19">
         <v>1</v>
       </c>
-      <c r="M19" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1266,12 +1445,21 @@
       <c r="L20">
         <v>1</v>
       </c>
-      <c r="M20" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1308,12 +1496,21 @@
       <c r="L21">
         <v>1</v>
       </c>
-      <c r="M21" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1350,12 +1547,21 @@
       <c r="L22">
         <v>1</v>
       </c>
-      <c r="M22" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1392,12 +1598,21 @@
       <c r="L23">
         <v>1</v>
       </c>
-      <c r="M23" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1434,12 +1649,21 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1476,12 +1700,21 @@
       <c r="L25">
         <v>1</v>
       </c>
-      <c r="M25" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1518,12 +1751,21 @@
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1560,12 +1802,21 @@
       <c r="L27">
         <v>1</v>
       </c>
-      <c r="M27" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1602,12 +1853,21 @@
       <c r="L28">
         <v>1</v>
       </c>
-      <c r="M28" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1644,12 +1904,21 @@
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1686,12 +1955,21 @@
       <c r="L30">
         <v>1</v>
       </c>
-      <c r="M30" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1728,12 +2006,21 @@
       <c r="L31">
         <v>1</v>
       </c>
-      <c r="M31" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1770,12 +2057,21 @@
       <c r="L32">
         <v>1</v>
       </c>
-      <c r="M32" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1812,12 +2108,21 @@
       <c r="L33">
         <v>1</v>
       </c>
-      <c r="M33" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1854,12 +2159,21 @@
       <c r="L34">
         <v>1</v>
       </c>
-      <c r="M34" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1896,12 +2210,21 @@
       <c r="L35">
         <v>1</v>
       </c>
-      <c r="M35" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1938,12 +2261,21 @@
       <c r="L36">
         <v>1</v>
       </c>
-      <c r="M36" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1980,12 +2312,21 @@
       <c r="L37">
         <v>1</v>
       </c>
-      <c r="M37" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2022,12 +2363,21 @@
       <c r="L38">
         <v>1</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2064,12 +2414,21 @@
       <c r="L39">
         <v>1</v>
       </c>
-      <c r="M39" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2106,12 +2465,21 @@
       <c r="L40">
         <v>1</v>
       </c>
-      <c r="M40" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2148,12 +2516,21 @@
       <c r="L41">
         <v>1</v>
       </c>
-      <c r="M41" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2190,12 +2567,21 @@
       <c r="L42">
         <v>1</v>
       </c>
-      <c r="M42" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2232,12 +2618,21 @@
       <c r="L43">
         <v>1</v>
       </c>
-      <c r="M43" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2274,12 +2669,21 @@
       <c r="L44">
         <v>1</v>
       </c>
-      <c r="M44" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2316,12 +2720,21 @@
       <c r="L45">
         <v>1</v>
       </c>
-      <c r="M45" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2358,12 +2771,21 @@
       <c r="L46">
         <v>1</v>
       </c>
-      <c r="M46" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2400,12 +2822,21 @@
       <c r="L47">
         <v>1</v>
       </c>
-      <c r="M47" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2442,12 +2873,21 @@
       <c r="L48">
         <v>0</v>
       </c>
-      <c r="M48" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2484,12 +2924,21 @@
       <c r="L49">
         <v>1</v>
       </c>
-      <c r="M49" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2526,12 +2975,21 @@
       <c r="L50">
         <v>1</v>
       </c>
-      <c r="M50" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2568,12 +3026,21 @@
       <c r="L51">
         <v>0</v>
       </c>
-      <c r="M51" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2610,12 +3077,21 @@
       <c r="L52">
         <v>1</v>
       </c>
-      <c r="M52" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2652,12 +3128,21 @@
       <c r="L53">
         <v>1</v>
       </c>
-      <c r="M53" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2694,12 +3179,21 @@
       <c r="L54">
         <v>1</v>
       </c>
-      <c r="M54" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2736,12 +3230,21 @@
       <c r="L55">
         <v>1</v>
       </c>
-      <c r="M55" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2778,12 +3281,21 @@
       <c r="L56">
         <v>1</v>
       </c>
-      <c r="M56" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2820,12 +3332,21 @@
       <c r="L57">
         <v>1</v>
       </c>
-      <c r="M57" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2862,12 +3383,21 @@
       <c r="L58">
         <v>0</v>
       </c>
-      <c r="M58" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2904,12 +3434,21 @@
       <c r="L59">
         <v>0</v>
       </c>
-      <c r="M59" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2946,12 +3485,21 @@
       <c r="L60">
         <v>0</v>
       </c>
-      <c r="M60" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2988,12 +3536,21 @@
       <c r="L61">
         <v>1</v>
       </c>
-      <c r="M61" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3030,12 +3587,21 @@
       <c r="L62">
         <v>0</v>
       </c>
-      <c r="M62" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3072,12 +3638,21 @@
       <c r="L63">
         <v>1</v>
       </c>
-      <c r="M63" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3114,12 +3689,21 @@
       <c r="L64">
         <v>0</v>
       </c>
-      <c r="M64" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3156,12 +3740,21 @@
       <c r="L65">
         <v>0</v>
       </c>
-      <c r="M65" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3198,12 +3791,21 @@
       <c r="L66">
         <v>1</v>
       </c>
-      <c r="M66" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3240,12 +3842,21 @@
       <c r="L67">
         <v>1</v>
       </c>
-      <c r="M67" s="1">
-        <f t="shared" ref="M67:M101" si="1">SUM(D67:L67)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67" s="1">
+        <f t="shared" ref="P67:P101" si="1">SUM(D67:O67)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3282,1395 +3893,1701 @@
       <c r="L68">
         <v>0</v>
       </c>
-      <c r="M68" s="1">
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" s="3">
-        <v>1</v>
-      </c>
-      <c r="C69" s="3">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69" s="1">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" s="3">
-        <v>1</v>
-      </c>
-      <c r="C70" s="3">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70" s="1">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
+        <v>1</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" s="3">
-        <v>1</v>
-      </c>
-      <c r="C71" s="3">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" s="3">
-        <v>1</v>
-      </c>
-      <c r="C72" s="3">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72" s="1">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" s="3">
-        <v>1</v>
-      </c>
-      <c r="C73" s="3">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73" s="1">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3">
+        <v>1</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="P99" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" s="3">
-        <v>1</v>
-      </c>
-      <c r="C74" s="3">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" s="3">
-        <v>1</v>
-      </c>
-      <c r="C75" s="3">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" s="3">
-        <v>1</v>
-      </c>
-      <c r="C76" s="3">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" s="3">
-        <v>1</v>
-      </c>
-      <c r="C77" s="3">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" s="3">
-        <v>1</v>
-      </c>
-      <c r="C78" s="3">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" s="3">
-        <v>1</v>
-      </c>
-      <c r="C79" s="3">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" s="3">
-        <v>1</v>
-      </c>
-      <c r="C80" s="3">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80">
-        <v>1</v>
-      </c>
-      <c r="M80" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" s="3">
-        <v>1</v>
-      </c>
-      <c r="C81" s="3">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-      <c r="L81">
-        <v>1</v>
-      </c>
-      <c r="M81" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" s="3">
-        <v>1</v>
-      </c>
-      <c r="C82" s="3">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>1</v>
-      </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-      <c r="M82" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" s="3">
-        <v>1</v>
-      </c>
-      <c r="C83" s="3">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-      <c r="J83">
-        <v>1</v>
-      </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
-      <c r="L83">
-        <v>1</v>
-      </c>
-      <c r="M83" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" s="3">
-        <v>1</v>
-      </c>
-      <c r="C84" s="3">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>1</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" s="3">
-        <v>1</v>
-      </c>
-      <c r="C85" s="3">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-      <c r="L85">
-        <v>1</v>
-      </c>
-      <c r="M85" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" s="3">
-        <v>1</v>
-      </c>
-      <c r="C86" s="3">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-      <c r="L86">
-        <v>1</v>
-      </c>
-      <c r="M86" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" s="3">
-        <v>1</v>
-      </c>
-      <c r="C87" s="3">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
-      <c r="L87">
-        <v>1</v>
-      </c>
-      <c r="M87" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" s="3">
-        <v>1</v>
-      </c>
-      <c r="C88" s="3">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88">
-        <v>1</v>
-      </c>
-      <c r="M88" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" s="3">
-        <v>1</v>
-      </c>
-      <c r="C89" s="3">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" s="3">
-        <v>1</v>
-      </c>
-      <c r="C90" s="3">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
-      <c r="J90">
-        <v>1</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="L90">
-        <v>1</v>
-      </c>
-      <c r="M90" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" s="3">
-        <v>1</v>
-      </c>
-      <c r="C91" s="3">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" s="3">
-        <v>1</v>
-      </c>
-      <c r="C92" s="3">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="L92">
-        <v>1</v>
-      </c>
-      <c r="M92" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" s="3">
-        <v>1</v>
-      </c>
-      <c r="C93" s="3">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-      <c r="J93">
-        <v>1</v>
-      </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
-      <c r="L93">
-        <v>1</v>
-      </c>
-      <c r="M93" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" s="3">
-        <v>1</v>
-      </c>
-      <c r="C94" s="3">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-      <c r="J94">
-        <v>1</v>
-      </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" s="3">
-        <v>1</v>
-      </c>
-      <c r="C95" s="3">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>1</v>
-      </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="M95" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" s="3">
-        <v>1</v>
-      </c>
-      <c r="C96" s="3">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
-      <c r="J96">
-        <v>1</v>
-      </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="M96" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" s="3">
-        <v>1</v>
-      </c>
-      <c r="C97" s="3">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>1</v>
-      </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98" s="3">
-        <v>1</v>
-      </c>
-      <c r="C98" s="3">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="L98">
-        <v>1</v>
-      </c>
-      <c r="M98" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99" s="3">
-        <v>1</v>
-      </c>
-      <c r="C99" s="3">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-      <c r="J99">
-        <v>1</v>
-      </c>
-      <c r="K99">
-        <v>1</v>
-      </c>
-      <c r="L99">
-        <v>1</v>
-      </c>
-      <c r="M99" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100" s="3">
-        <v>1</v>
-      </c>
-      <c r="C100" s="3">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
-      <c r="J100">
-        <v>1</v>
-      </c>
-      <c r="K100">
-        <v>1</v>
-      </c>
-      <c r="L100">
-        <v>1</v>
-      </c>
-      <c r="M100" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" s="3">
-        <v>1</v>
-      </c>
-      <c r="C101" s="3">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <v>1</v>
-      </c>
-      <c r="K101">
-        <v>1</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/globzha_emory_edu/Documents/Emory/Research/საქართველო სომხეთი/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_F25DC773A252ABDACC1048A80958762A5BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C61F3F1-C86D-411C-B0D3-4D8B518950C4}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="11_F25DC773A252ABDACC1048A80958762A5BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B1541C9-5862-420B-AD1D-5AE906EFAEA9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Sex</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>AnswerMrt</t>
+  </si>
+  <si>
+    <t>AnswerT</t>
   </si>
 </sst>
 </file>
@@ -137,12 +140,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -159,6 +161,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,23 +430,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC101"/>
+  <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="Q103" sqref="Q103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="13" max="13" width="10.88671875" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="4"/>
-    <col min="16" max="16" width="8.88671875" style="1"/>
-    <col min="17" max="17" width="11.33203125" customWidth="1"/>
-    <col min="18" max="18" width="12.109375" customWidth="1"/>
-    <col min="29" max="29" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="11.33203125" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" customWidth="1"/>
+    <col min="30" max="30" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -483,14 +488,17 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -536,12 +544,15 @@
       <c r="O2">
         <v>0</v>
       </c>
-      <c r="P2" s="1">
-        <f>SUM(D2:O2)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>SUM(D2:P2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -587,12 +598,15 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" s="1">
-        <f t="shared" ref="P3:P66" si="0">SUM(D3:O3)</f>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q66" si="0">SUM(D3:P3)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -638,12 +652,15 @@
       <c r="O4">
         <v>1</v>
       </c>
-      <c r="P4" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -689,12 +706,15 @@
       <c r="O5">
         <v>1</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -740,12 +760,15 @@
       <c r="O6">
         <v>1</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -791,12 +814,15 @@
       <c r="O7">
         <v>1</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -842,12 +868,15 @@
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -893,12 +922,15 @@
       <c r="O9">
         <v>1</v>
       </c>
-      <c r="P9" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -944,12 +976,15 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -995,12 +1030,15 @@
       <c r="O11">
         <v>1</v>
       </c>
-      <c r="P11" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1046,12 +1084,15 @@
       <c r="O12">
         <v>1</v>
       </c>
-      <c r="P12" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1097,12 +1138,15 @@
       <c r="O13">
         <v>1</v>
       </c>
-      <c r="P13" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1148,12 +1192,15 @@
       <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1199,12 +1246,15 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1250,12 +1300,15 @@
       <c r="O16">
         <v>1</v>
       </c>
-      <c r="P16" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1301,12 +1354,15 @@
       <c r="O17">
         <v>1</v>
       </c>
-      <c r="P17" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1352,12 +1408,15 @@
       <c r="O18">
         <v>1</v>
       </c>
-      <c r="P18" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1403,12 +1462,15 @@
       <c r="O19">
         <v>1</v>
       </c>
-      <c r="P19" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1454,12 +1516,15 @@
       <c r="O20">
         <v>0</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1505,12 +1570,15 @@
       <c r="O21">
         <v>1</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1556,12 +1624,15 @@
       <c r="O22">
         <v>0</v>
       </c>
-      <c r="P22" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1607,12 +1678,15 @@
       <c r="O23">
         <v>0</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1658,12 +1732,15 @@
       <c r="O24">
         <v>1</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1709,12 +1786,15 @@
       <c r="O25">
         <v>0</v>
       </c>
-      <c r="P25" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1760,12 +1840,15 @@
       <c r="O26">
         <v>0</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1811,12 +1894,15 @@
       <c r="O27">
         <v>0</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1862,12 +1948,15 @@
       <c r="O28">
         <v>1</v>
       </c>
-      <c r="P28" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1913,12 +2002,15 @@
       <c r="O29">
         <v>0</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1964,12 +2056,15 @@
       <c r="O30">
         <v>1</v>
       </c>
-      <c r="P30" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2015,12 +2110,15 @@
       <c r="O31">
         <v>1</v>
       </c>
-      <c r="P31" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2066,12 +2164,15 @@
       <c r="O32">
         <v>1</v>
       </c>
-      <c r="P32" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2117,12 +2218,15 @@
       <c r="O33">
         <v>0</v>
       </c>
-      <c r="P33" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2168,12 +2272,15 @@
       <c r="O34">
         <v>1</v>
       </c>
-      <c r="P34" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2219,12 +2326,15 @@
       <c r="O35">
         <v>1</v>
       </c>
-      <c r="P35" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2270,12 +2380,15 @@
       <c r="O36">
         <v>1</v>
       </c>
-      <c r="P36" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2321,12 +2434,15 @@
       <c r="O37">
         <v>0</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2372,12 +2488,15 @@
       <c r="O38">
         <v>0</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2423,12 +2542,15 @@
       <c r="O39">
         <v>0</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2474,12 +2596,15 @@
       <c r="O40">
         <v>1</v>
       </c>
-      <c r="P40" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2525,12 +2650,15 @@
       <c r="O41">
         <v>1</v>
       </c>
-      <c r="P41" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2576,12 +2704,15 @@
       <c r="O42">
         <v>1</v>
       </c>
-      <c r="P42" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2627,12 +2758,15 @@
       <c r="O43">
         <v>1</v>
       </c>
-      <c r="P43" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2678,12 +2812,15 @@
       <c r="O44">
         <v>1</v>
       </c>
-      <c r="P44" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2729,12 +2866,15 @@
       <c r="O45">
         <v>1</v>
       </c>
-      <c r="P45" s="1">
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2780,12 +2920,15 @@
       <c r="O46">
         <v>1</v>
       </c>
-      <c r="P46" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2831,12 +2974,15 @@
       <c r="O47">
         <v>0</v>
       </c>
-      <c r="P47" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2882,12 +3028,15 @@
       <c r="O48">
         <v>0</v>
       </c>
-      <c r="P48" s="1">
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2933,12 +3082,15 @@
       <c r="O49">
         <v>1</v>
       </c>
-      <c r="P49" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2984,12 +3136,15 @@
       <c r="O50">
         <v>1</v>
       </c>
-      <c r="P50" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3035,12 +3190,15 @@
       <c r="O51">
         <v>0</v>
       </c>
-      <c r="P51" s="1">
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3086,12 +3244,15 @@
       <c r="O52">
         <v>1</v>
       </c>
-      <c r="P52" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3137,12 +3298,15 @@
       <c r="O53">
         <v>1</v>
       </c>
-      <c r="P53" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3188,12 +3352,15 @@
       <c r="O54">
         <v>1</v>
       </c>
-      <c r="P54" s="1">
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3239,12 +3406,15 @@
       <c r="O55">
         <v>1</v>
       </c>
-      <c r="P55" s="1">
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3290,12 +3460,15 @@
       <c r="O56">
         <v>0</v>
       </c>
-      <c r="P56" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3341,12 +3514,15 @@
       <c r="O57">
         <v>1</v>
       </c>
-      <c r="P57" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3392,12 +3568,15 @@
       <c r="O58">
         <v>0</v>
       </c>
-      <c r="P58" s="1">
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3443,12 +3622,15 @@
       <c r="O59">
         <v>1</v>
       </c>
-      <c r="P59" s="1">
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3494,12 +3676,15 @@
       <c r="O60">
         <v>1</v>
       </c>
-      <c r="P60" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3545,12 +3730,15 @@
       <c r="O61">
         <v>0</v>
       </c>
-      <c r="P61" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3596,12 +3784,15 @@
       <c r="O62">
         <v>1</v>
       </c>
-      <c r="P62" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3647,12 +3838,15 @@
       <c r="O63">
         <v>0</v>
       </c>
-      <c r="P63" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3698,12 +3892,15 @@
       <c r="O64">
         <v>0</v>
       </c>
-      <c r="P64" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3749,12 +3946,15 @@
       <c r="O65">
         <v>0</v>
       </c>
-      <c r="P65" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3800,12 +4000,15 @@
       <c r="O66">
         <v>1</v>
       </c>
-      <c r="P66" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3851,12 +4054,15 @@
       <c r="O67">
         <v>1</v>
       </c>
-      <c r="P67" s="1">
-        <f t="shared" ref="P67:P101" si="1">SUM(D67:O67)</f>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="1">
+        <f t="shared" ref="Q67:Q101" si="1">SUM(D67:P67)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3902,114 +4108,123 @@
       <c r="O68">
         <v>1</v>
       </c>
-      <c r="P68" s="1">
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" s="3">
-        <v>1</v>
-      </c>
-      <c r="C69" s="3">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>1</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>1</v>
-      </c>
-      <c r="P69" s="1">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" s="3">
-        <v>1</v>
-      </c>
-      <c r="C70" s="3">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4055,1539 +4270,1632 @@
       <c r="O71">
         <v>1</v>
       </c>
-      <c r="P71" s="1">
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
+        <v>1</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3">
+        <v>1</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="P99">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <v>1</v>
+      </c>
+      <c r="Q100" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" s="3">
-        <v>1</v>
-      </c>
-      <c r="C72" s="3">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72">
-        <v>1</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" s="3">
-        <v>1</v>
-      </c>
-      <c r="C73" s="3">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" s="3">
-        <v>1</v>
-      </c>
-      <c r="C74" s="3">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>1</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <v>1</v>
-      </c>
-      <c r="P74" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" s="3">
-        <v>1</v>
-      </c>
-      <c r="C75" s="3">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>1</v>
-      </c>
-      <c r="P75" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" s="3">
-        <v>1</v>
-      </c>
-      <c r="C76" s="3">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" s="3">
-        <v>1</v>
-      </c>
-      <c r="C77" s="3">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>1</v>
-      </c>
-      <c r="P77" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" s="3">
-        <v>1</v>
-      </c>
-      <c r="C78" s="3">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78">
-        <v>1</v>
-      </c>
-      <c r="N78">
-        <v>1</v>
-      </c>
-      <c r="O78">
-        <v>1</v>
-      </c>
-      <c r="P78" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" s="3">
-        <v>1</v>
-      </c>
-      <c r="C79" s="3">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <v>1</v>
-      </c>
-      <c r="P79" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" s="3">
-        <v>1</v>
-      </c>
-      <c r="C80" s="3">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80">
-        <v>1</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
-      <c r="O80">
-        <v>1</v>
-      </c>
-      <c r="P80" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" s="3">
-        <v>1</v>
-      </c>
-      <c r="C81" s="3">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-      <c r="L81">
-        <v>1</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-      <c r="O81">
-        <v>1</v>
-      </c>
-      <c r="P81" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" s="3">
-        <v>1</v>
-      </c>
-      <c r="C82" s="3">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>1</v>
-      </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-      <c r="M82">
-        <v>1</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82">
-        <v>1</v>
-      </c>
-      <c r="P82" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" s="3">
-        <v>1</v>
-      </c>
-      <c r="C83" s="3">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-      <c r="J83">
-        <v>1</v>
-      </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
-      <c r="L83">
-        <v>1</v>
-      </c>
-      <c r="M83">
-        <v>1</v>
-      </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-      <c r="O83">
-        <v>1</v>
-      </c>
-      <c r="P83" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" s="3">
-        <v>1</v>
-      </c>
-      <c r="C84" s="3">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>1</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>1</v>
-      </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-      <c r="O84">
-        <v>1</v>
-      </c>
-      <c r="P84" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" s="3">
-        <v>1</v>
-      </c>
-      <c r="C85" s="3">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-      <c r="L85">
-        <v>1</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-      <c r="O85">
-        <v>1</v>
-      </c>
-      <c r="P85" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" s="3">
-        <v>1</v>
-      </c>
-      <c r="C86" s="3">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-      <c r="L86">
-        <v>1</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>1</v>
-      </c>
-      <c r="P86" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" s="3">
-        <v>1</v>
-      </c>
-      <c r="C87" s="3">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
-      <c r="L87">
-        <v>1</v>
-      </c>
-      <c r="M87">
-        <v>1</v>
-      </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" s="3">
-        <v>1</v>
-      </c>
-      <c r="C88" s="3">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88">
-        <v>1</v>
-      </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-      <c r="O88">
-        <v>1</v>
-      </c>
-      <c r="P88" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" s="3">
-        <v>1</v>
-      </c>
-      <c r="C89" s="3">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-      <c r="N89">
-        <v>0</v>
-      </c>
-      <c r="O89">
-        <v>1</v>
-      </c>
-      <c r="P89" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" s="3">
-        <v>1</v>
-      </c>
-      <c r="C90" s="3">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
-      <c r="J90">
-        <v>1</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="L90">
-        <v>1</v>
-      </c>
-      <c r="M90">
-        <v>1</v>
-      </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
-      <c r="O90">
-        <v>1</v>
-      </c>
-      <c r="P90" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" s="3">
-        <v>1</v>
-      </c>
-      <c r="C91" s="3">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-      <c r="N91">
-        <v>0</v>
-      </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-      <c r="P91" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" s="3">
-        <v>1</v>
-      </c>
-      <c r="C92" s="3">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="L92">
-        <v>1</v>
-      </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-      <c r="N92">
-        <v>1</v>
-      </c>
-      <c r="O92">
-        <v>1</v>
-      </c>
-      <c r="P92" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" s="3">
-        <v>1</v>
-      </c>
-      <c r="C93" s="3">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-      <c r="J93">
-        <v>1</v>
-      </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
-      <c r="L93">
-        <v>1</v>
-      </c>
-      <c r="M93">
-        <v>1</v>
-      </c>
-      <c r="N93">
-        <v>1</v>
-      </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="P93" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" s="3">
-        <v>1</v>
-      </c>
-      <c r="C94" s="3">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-      <c r="J94">
-        <v>1</v>
-      </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <v>1</v>
-      </c>
-      <c r="N94">
-        <v>0</v>
-      </c>
-      <c r="O94">
-        <v>1</v>
-      </c>
-      <c r="P94" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" s="3">
-        <v>1</v>
-      </c>
-      <c r="C95" s="3">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>1</v>
-      </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
-      <c r="N95">
-        <v>0</v>
-      </c>
-      <c r="O95">
-        <v>0</v>
-      </c>
-      <c r="P95" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" s="3">
-        <v>1</v>
-      </c>
-      <c r="C96" s="3">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
-      <c r="J96">
-        <v>1</v>
-      </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="M96">
-        <v>1</v>
-      </c>
-      <c r="N96">
-        <v>1</v>
-      </c>
-      <c r="O96">
-        <v>0</v>
-      </c>
-      <c r="P96" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" s="3">
-        <v>1</v>
-      </c>
-      <c r="C97" s="3">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>1</v>
-      </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
-      <c r="N97">
-        <v>1</v>
-      </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-      <c r="P97" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98" s="3">
-        <v>1</v>
-      </c>
-      <c r="C98" s="3">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="L98">
-        <v>1</v>
-      </c>
-      <c r="M98">
-        <v>0</v>
-      </c>
-      <c r="N98">
-        <v>1</v>
-      </c>
-      <c r="O98">
-        <v>1</v>
-      </c>
-      <c r="P98" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99" s="3">
-        <v>1</v>
-      </c>
-      <c r="C99" s="3">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-      <c r="J99">
-        <v>1</v>
-      </c>
-      <c r="K99">
-        <v>1</v>
-      </c>
-      <c r="L99">
-        <v>1</v>
-      </c>
-      <c r="M99">
-        <v>0</v>
-      </c>
-      <c r="N99">
-        <v>0</v>
-      </c>
-      <c r="O99">
-        <v>1</v>
-      </c>
-      <c r="P99" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100" s="3">
-        <v>1</v>
-      </c>
-      <c r="C100" s="3">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
-      <c r="J100">
-        <v>1</v>
-      </c>
-      <c r="K100">
-        <v>1</v>
-      </c>
-      <c r="L100">
-        <v>1</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="N100">
-        <v>0</v>
-      </c>
-      <c r="O100">
-        <v>1</v>
-      </c>
-      <c r="P100" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" s="3">
-        <v>1</v>
-      </c>
-      <c r="C101" s="3">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <v>1</v>
-      </c>
-      <c r="K101">
-        <v>1</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101">
-        <v>1</v>
-      </c>
-      <c r="N101">
-        <v>0</v>
-      </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-      <c r="P101" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/globzha_emory_edu/Documents/Emory/Research/საქართველო სომხეთი/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="11_F25DC773A252ABDACC1048A80958762A5BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B1541C9-5862-420B-AD1D-5AE906EFAEA9}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="11_F25DC773A252ABDACC1048A80958762A5BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDC19E5C-BDC1-4864-87E7-8731B642C0B9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Sex</t>
   </si>
@@ -47,46 +47,49 @@
     <t>#</t>
   </si>
   <si>
-    <t>AnswerD</t>
-  </si>
-  <si>
-    <t>AnswerN</t>
-  </si>
-  <si>
-    <t>AnswerC</t>
-  </si>
-  <si>
-    <t>AnswerG</t>
-  </si>
-  <si>
-    <t>AnswerE</t>
-  </si>
-  <si>
-    <t>AnswerO</t>
-  </si>
-  <si>
-    <t>AnswerM</t>
-  </si>
-  <si>
-    <t>AnswerV</t>
-  </si>
-  <si>
     <t>AnswerSum</t>
   </si>
   <si>
-    <t>AnswerEg</t>
+    <t>Data</t>
   </si>
   <si>
-    <t>AnswerOz</t>
+    <t>Niko</t>
   </si>
   <si>
-    <t>AnswerP</t>
+    <t>Chertko</t>
   </si>
   <si>
-    <t>AnswerMrt</t>
+    <t>Gvine</t>
   </si>
   <si>
-    <t>AnswerT</t>
+    <t>Erekle</t>
+  </si>
+  <si>
+    <t>Oto</t>
+  </si>
+  <si>
+    <t>Maro</t>
+  </si>
+  <si>
+    <t>Vaughn</t>
+  </si>
+  <si>
+    <t>Egnata</t>
+  </si>
+  <si>
+    <t>Marta</t>
+  </si>
+  <si>
+    <t>OtarZ</t>
+  </si>
+  <si>
+    <t>Parna</t>
+  </si>
+  <si>
+    <t>Toto</t>
+  </si>
+  <si>
+    <t>Ila</t>
   </si>
 </sst>
 </file>
@@ -161,10 +164,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,22 +429,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD101"/>
+  <dimension ref="A1:AE101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="Q103" sqref="Q103"/>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52:Q101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="13" max="13" width="10.88671875" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="11.33203125" customWidth="1"/>
-    <col min="19" max="19" width="12.109375" customWidth="1"/>
-    <col min="30" max="30" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="8.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" customWidth="1"/>
+    <col min="20" max="20" width="12.109375" customWidth="1"/>
+    <col min="31" max="31" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -456,49 +455,52 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" t="s">
         <v>12</v>
       </c>
       <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
         <v>15</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
       </c>
       <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -547,12 +549,15 @@
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
         <f>SUM(D2:P2)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -601,12 +606,15 @@
       <c r="P3">
         <v>0</v>
       </c>
-      <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q66" si="0">SUM(D3:P3)</f>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R66" si="0">SUM(D3:P3)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -655,12 +663,15 @@
       <c r="P4">
         <v>1</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -709,12 +720,15 @@
       <c r="P5">
         <v>0</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -763,12 +777,15 @@
       <c r="P6">
         <v>0</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -817,12 +834,15 @@
       <c r="P7">
         <v>0</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -871,12 +891,15 @@
       <c r="P8">
         <v>1</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -925,12 +948,15 @@
       <c r="P9">
         <v>1</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -979,12 +1005,15 @@
       <c r="P10">
         <v>0</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1033,12 +1062,15 @@
       <c r="P11">
         <v>1</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1087,12 +1119,15 @@
       <c r="P12">
         <v>1</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1141,12 +1176,15 @@
       <c r="P13">
         <v>1</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1195,12 +1233,15 @@
       <c r="P14">
         <v>0</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1249,12 +1290,15 @@
       <c r="P15">
         <v>1</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1303,12 +1347,15 @@
       <c r="P16">
         <v>1</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1357,12 +1404,15 @@
       <c r="P17">
         <v>1</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1411,12 +1461,15 @@
       <c r="P18">
         <v>1</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1465,12 +1518,15 @@
       <c r="P19">
         <v>1</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1519,12 +1575,15 @@
       <c r="P20">
         <v>0</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1573,12 +1632,15 @@
       <c r="P21">
         <v>0</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1627,12 +1689,15 @@
       <c r="P22">
         <v>1</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1681,12 +1746,15 @@
       <c r="P23">
         <v>0</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1735,12 +1803,15 @@
       <c r="P24">
         <v>0</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1789,12 +1860,15 @@
       <c r="P25">
         <v>1</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1843,12 +1917,15 @@
       <c r="P26">
         <v>0</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1897,12 +1974,15 @@
       <c r="P27">
         <v>0</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1951,12 +2031,15 @@
       <c r="P28">
         <v>1</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2005,12 +2088,15 @@
       <c r="P29">
         <v>0</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2059,12 +2145,15 @@
       <c r="P30">
         <v>1</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2113,12 +2202,15 @@
       <c r="P31">
         <v>1</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2167,12 +2259,15 @@
       <c r="P32">
         <v>1</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2221,12 +2316,15 @@
       <c r="P33">
         <v>1</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2275,12 +2373,15 @@
       <c r="P34">
         <v>1</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2329,12 +2430,15 @@
       <c r="P35">
         <v>1</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2383,12 +2487,15 @@
       <c r="P36">
         <v>1</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2437,12 +2544,15 @@
       <c r="P37">
         <v>0</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2491,12 +2601,15 @@
       <c r="P38">
         <v>0</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2545,12 +2658,15 @@
       <c r="P39">
         <v>0</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2599,12 +2715,15 @@
       <c r="P40">
         <v>1</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2653,12 +2772,15 @@
       <c r="P41">
         <v>1</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2707,12 +2829,15 @@
       <c r="P42">
         <v>1</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2761,12 +2886,15 @@
       <c r="P43">
         <v>1</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2815,12 +2943,15 @@
       <c r="P44">
         <v>1</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2869,12 +3000,15 @@
       <c r="P45">
         <v>0</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2923,12 +3057,15 @@
       <c r="P46">
         <v>1</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2977,12 +3114,15 @@
       <c r="P47">
         <v>1</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3031,12 +3171,15 @@
       <c r="P48">
         <v>0</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3085,12 +3228,15 @@
       <c r="P49">
         <v>1</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3139,12 +3285,15 @@
       <c r="P50">
         <v>1</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3193,12 +3342,15 @@
       <c r="P51">
         <v>0</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3247,12 +3399,15 @@
       <c r="P52">
         <v>1</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3301,12 +3456,15 @@
       <c r="P53">
         <v>1</v>
       </c>
-      <c r="Q53" s="1">
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3355,12 +3513,15 @@
       <c r="P54">
         <v>0</v>
       </c>
-      <c r="Q54" s="1">
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3409,12 +3570,15 @@
       <c r="P55">
         <v>0</v>
       </c>
-      <c r="Q55" s="1">
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3463,12 +3627,15 @@
       <c r="P56">
         <v>1</v>
       </c>
-      <c r="Q56" s="1">
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3517,12 +3684,15 @@
       <c r="P57">
         <v>1</v>
       </c>
-      <c r="Q57" s="1">
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3571,12 +3741,15 @@
       <c r="P58">
         <v>0</v>
       </c>
-      <c r="Q58" s="1">
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3625,12 +3798,15 @@
       <c r="P59">
         <v>0</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3679,12 +3855,15 @@
       <c r="P60">
         <v>1</v>
       </c>
-      <c r="Q60" s="1">
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3733,12 +3912,15 @@
       <c r="P61">
         <v>1</v>
       </c>
-      <c r="Q61" s="1">
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3787,12 +3969,15 @@
       <c r="P62">
         <v>1</v>
       </c>
-      <c r="Q62" s="1">
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="R62" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3841,12 +4026,15 @@
       <c r="P63">
         <v>1</v>
       </c>
-      <c r="Q63" s="1">
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3895,12 +4083,15 @@
       <c r="P64">
         <v>1</v>
       </c>
-      <c r="Q64" s="1">
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3949,12 +4140,15 @@
       <c r="P65">
         <v>1</v>
       </c>
-      <c r="Q65" s="1">
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4003,12 +4197,15 @@
       <c r="P66">
         <v>1</v>
       </c>
-      <c r="Q66" s="1">
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4057,12 +4254,15 @@
       <c r="P67">
         <v>0</v>
       </c>
-      <c r="Q67" s="1">
-        <f t="shared" ref="Q67:Q101" si="1">SUM(D67:P67)</f>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="R67" s="1">
+        <f t="shared" ref="R67:R101" si="1">SUM(D67:P67)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4111,12 +4311,15 @@
       <c r="P68">
         <v>1</v>
       </c>
-      <c r="Q68" s="1">
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4165,12 +4368,15 @@
       <c r="P69">
         <v>1</v>
       </c>
-      <c r="Q69" s="1">
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="R69" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4219,12 +4425,15 @@
       <c r="P70">
         <v>0</v>
       </c>
-      <c r="Q70" s="1">
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4273,12 +4482,15 @@
       <c r="P71">
         <v>1</v>
       </c>
-      <c r="Q71" s="1">
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4327,12 +4539,15 @@
       <c r="P72">
         <v>1</v>
       </c>
-      <c r="Q72" s="1">
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4381,12 +4596,15 @@
       <c r="P73">
         <v>0</v>
       </c>
-      <c r="Q73" s="1">
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4435,12 +4653,15 @@
       <c r="P74">
         <v>1</v>
       </c>
-      <c r="Q74" s="1">
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4489,12 +4710,15 @@
       <c r="P75">
         <v>0</v>
       </c>
-      <c r="Q75" s="1">
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4543,12 +4767,15 @@
       <c r="P76">
         <v>0</v>
       </c>
-      <c r="Q76" s="1">
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4597,12 +4824,15 @@
       <c r="P77">
         <v>1</v>
       </c>
-      <c r="Q77" s="1">
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4651,12 +4881,15 @@
       <c r="P78">
         <v>1</v>
       </c>
-      <c r="Q78" s="1">
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4705,12 +4938,15 @@
       <c r="P79">
         <v>1</v>
       </c>
-      <c r="Q79" s="1">
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4759,12 +4995,15 @@
       <c r="P80">
         <v>1</v>
       </c>
-      <c r="Q80" s="1">
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4813,12 +5052,15 @@
       <c r="P81">
         <v>0</v>
       </c>
-      <c r="Q81" s="1">
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4867,12 +5109,15 @@
       <c r="P82">
         <v>1</v>
       </c>
-      <c r="Q82" s="1">
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4921,12 +5166,15 @@
       <c r="P83">
         <v>1</v>
       </c>
-      <c r="Q83" s="1">
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4975,12 +5223,15 @@
       <c r="P84">
         <v>1</v>
       </c>
-      <c r="Q84" s="1">
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5029,12 +5280,15 @@
       <c r="P85">
         <v>1</v>
       </c>
-      <c r="Q85" s="1">
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="R85" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5083,12 +5337,15 @@
       <c r="P86">
         <v>1</v>
       </c>
-      <c r="Q86" s="1">
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5137,12 +5394,15 @@
       <c r="P87">
         <v>0</v>
       </c>
-      <c r="Q87" s="1">
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="R87" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5191,12 +5451,15 @@
       <c r="P88">
         <v>1</v>
       </c>
-      <c r="Q88" s="1">
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="R88" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5245,12 +5508,15 @@
       <c r="P89">
         <v>1</v>
       </c>
-      <c r="Q89" s="1">
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5299,12 +5565,15 @@
       <c r="P90">
         <v>1</v>
       </c>
-      <c r="Q90" s="1">
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5353,12 +5622,15 @@
       <c r="P91">
         <v>0</v>
       </c>
-      <c r="Q91" s="1">
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5407,12 +5679,15 @@
       <c r="P92">
         <v>1</v>
       </c>
-      <c r="Q92" s="1">
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5461,12 +5736,15 @@
       <c r="P93">
         <v>1</v>
       </c>
-      <c r="Q93" s="1">
+      <c r="Q93">
+        <v>1</v>
+      </c>
+      <c r="R93" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5515,12 +5793,15 @@
       <c r="P94">
         <v>0</v>
       </c>
-      <c r="Q94" s="1">
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5569,12 +5850,15 @@
       <c r="P95">
         <v>1</v>
       </c>
-      <c r="Q95" s="1">
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5623,12 +5907,15 @@
       <c r="P96">
         <v>1</v>
       </c>
-      <c r="Q96" s="1">
+      <c r="Q96">
+        <v>1</v>
+      </c>
+      <c r="R96" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5677,12 +5964,15 @@
       <c r="P97">
         <v>0</v>
       </c>
-      <c r="Q97" s="1">
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5731,12 +6021,15 @@
       <c r="P98">
         <v>0</v>
       </c>
-      <c r="Q98" s="1">
+      <c r="Q98">
+        <v>1</v>
+      </c>
+      <c r="R98" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5785,12 +6078,15 @@
       <c r="P99">
         <v>1</v>
       </c>
-      <c r="Q99" s="1">
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5839,12 +6135,15 @@
       <c r="P100">
         <v>1</v>
       </c>
-      <c r="Q100" s="1">
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5893,7 +6192,10 @@
       <c r="P101">
         <v>1</v>
       </c>
-      <c r="Q101" s="1">
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
